--- a/optaplanner-examples/data/rocktour/unsolved/48shows.xlsx
+++ b/optaplanner-examples/data/rocktour/unsolved/48shows.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="427">
   <si>
     <t>Tour name</t>
   </si>
@@ -24,6 +24,18 @@
     <t>48shows</t>
   </si>
   <si>
+    <t>Early late break driving seconds budget</t>
+  </si>
+  <si>
+    <t>Maximum driving time in seconds between 2 shows on the same day.</t>
+  </si>
+  <si>
+    <t>Night driving seconds budget</t>
+  </si>
+  <si>
+    <t>Maximum driving time in seconds per night between 2 shows.</t>
+  </si>
+  <si>
     <t>Constraint</t>
   </si>
   <si>
@@ -33,81 +45,102 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Minimize missed shows</t>
+  </si>
+  <si>
+    <t>Set this to 1 to prioritize visiting all shows (over the other constraints).</t>
+  </si>
+  <si>
+    <t>Maximize revenue opportunity</t>
+  </si>
+  <si>
+    <t>Reward per revenue opportunity.</t>
+  </si>
+  <si>
+    <t>Minimize driving time cost</t>
+  </si>
+  <si>
+    <t>Driving time cost per second.</t>
+  </si>
+  <si>
+    <t>Visit sooner than later</t>
+  </si>
+  <si>
+    <t>Cost per day for each day that a visit is later in the schedule.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>City name</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bus start</t>
+  </si>
+  <si>
+    <t>Montgomery, Alabama</t>
+  </si>
+  <si>
+    <t>Thu 2018-02-01</t>
+  </si>
+  <si>
+    <t>Bus end</t>
+  </si>
+  <si>
+    <t>Sat 2018-12-01</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Feb 2018</t>
+  </si>
+  <si>
+    <t>Mar 2018</t>
+  </si>
+  <si>
+    <t>Apr 2018</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Jun 2018</t>
+  </si>
+  <si>
+    <t>Jul 2018</t>
+  </si>
+  <si>
+    <t>Aug 2018</t>
+  </si>
+  <si>
+    <t>Sep 2018</t>
+  </si>
+  <si>
+    <t>Oct 2018</t>
+  </si>
+  <si>
+    <t>Nov 2018</t>
+  </si>
+  <si>
+    <t>Venue name</t>
+  </si>
+  <si>
+    <t>Duration (in days)</t>
+  </si>
+  <si>
     <t>Revenue opportunity</t>
   </si>
   <si>
-    <t>Soft reward per revenue opportunity</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>City name</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Bus start</t>
-  </si>
-  <si>
-    <t>Montgomery, Alabama</t>
-  </si>
-  <si>
-    <t>Thu 2018-02-01</t>
-  </si>
-  <si>
-    <t>Bus end</t>
-  </si>
-  <si>
-    <t>Sat 2018-12-01</t>
-  </si>
-  <si>
-    <t>Availability</t>
-  </si>
-  <si>
-    <t>Feb 2018</t>
-  </si>
-  <si>
-    <t>Mar 2018</t>
-  </si>
-  <si>
-    <t>Apr 2018</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Jun 2018</t>
-  </si>
-  <si>
-    <t>Jul 2018</t>
-  </si>
-  <si>
-    <t>Aug 2018</t>
-  </si>
-  <si>
-    <t>Sep 2018</t>
-  </si>
-  <si>
-    <t>Oct 2018</t>
-  </si>
-  <si>
-    <t>Nov 2018</t>
-  </si>
-  <si>
-    <t>Venue name</t>
-  </si>
-  <si>
-    <t>Duration (in days)</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -348,298 +381,10 @@
     <t>Driving time in seconds. Delete this sheet to generate it from air distances.</t>
   </si>
   <si>
-    <t>30.27467</t>
-  </si>
-  <si>
-    <t>30.438118</t>
-  </si>
-  <si>
-    <t>30.457069</t>
-  </si>
-  <si>
-    <t>32.303848</t>
-  </si>
-  <si>
-    <t>32.377716</t>
-  </si>
-  <si>
-    <t>33.448143</t>
-  </si>
-  <si>
-    <t>33.749027</t>
-  </si>
-  <si>
-    <t>34.000343</t>
-  </si>
-  <si>
-    <t>34.746613</t>
-  </si>
-  <si>
-    <t>35.492207</t>
-  </si>
-  <si>
-    <t>35.68224</t>
-  </si>
-  <si>
-    <t>35.78043</t>
-  </si>
-  <si>
-    <t>36.16581</t>
-  </si>
-  <si>
-    <t>37.538857</t>
-  </si>
-  <si>
-    <t>38.186722</t>
-  </si>
-  <si>
-    <t>38.336246</t>
-  </si>
-  <si>
-    <t>38.576668</t>
-  </si>
-  <si>
-    <t>38.579201</t>
-  </si>
-  <si>
-    <t>38.978764</t>
-  </si>
-  <si>
-    <t>39.048191</t>
-  </si>
-  <si>
-    <t>39.157307</t>
-  </si>
-  <si>
-    <t>39.163914</t>
-  </si>
-  <si>
-    <t>39.739227</t>
-  </si>
-  <si>
-    <t>39.768623</t>
-  </si>
-  <si>
-    <t>39.798363</t>
-  </si>
-  <si>
-    <t>39.961346</t>
-  </si>
-  <si>
-    <t>40.220596</t>
-  </si>
-  <si>
-    <t>40.264378</t>
-  </si>
-  <si>
-    <t>40.777477</t>
-  </si>
-  <si>
-    <t>40.808075</t>
-  </si>
-  <si>
-    <t>41.140259</t>
-  </si>
-  <si>
-    <t>41.591087</t>
-  </si>
-  <si>
-    <t>41.764046</t>
-  </si>
-  <si>
-    <t>41.830914</t>
-  </si>
-  <si>
-    <t>42.358162</t>
-  </si>
-  <si>
-    <t>42.652843</t>
-  </si>
-  <si>
-    <t>42.733635</t>
-  </si>
-  <si>
-    <t>43.074684</t>
-  </si>
-  <si>
-    <t>43.206898</t>
-  </si>
-  <si>
-    <t>43.617775</t>
-  </si>
-  <si>
-    <t>44.262436</t>
-  </si>
-  <si>
-    <t>44.307167</t>
-  </si>
-  <si>
-    <t>44.367031</t>
-  </si>
-  <si>
-    <t>44.938461</t>
-  </si>
-  <si>
-    <t>44.955097</t>
-  </si>
-  <si>
-    <t>46.585709</t>
-  </si>
-  <si>
-    <t>46.82085</t>
-  </si>
-  <si>
-    <t>47.035805</t>
-  </si>
-  <si>
-    <t>-97.740349</t>
-  </si>
-  <si>
-    <t>-84.281296</t>
-  </si>
-  <si>
-    <t>-91.187393</t>
-  </si>
-  <si>
-    <t>-90.182106</t>
-  </si>
-  <si>
-    <t>-86.300568</t>
-  </si>
-  <si>
-    <t>-112.096962</t>
-  </si>
-  <si>
-    <t>-84.388229</t>
-  </si>
-  <si>
-    <t>-81.033211</t>
-  </si>
-  <si>
-    <t>-92.288986</t>
-  </si>
-  <si>
-    <t>-97.503342</t>
-  </si>
-  <si>
-    <t>-105.939728</t>
-  </si>
-  <si>
-    <t>-78.639099</t>
-  </si>
-  <si>
-    <t>-86.784241</t>
-  </si>
-  <si>
-    <t>-77.43364</t>
-  </si>
-  <si>
-    <t>-84.875374</t>
-  </si>
-  <si>
-    <t>-81.612328</t>
-  </si>
-  <si>
-    <t>-121.493629</t>
-  </si>
-  <si>
-    <t>-92.172935</t>
-  </si>
-  <si>
-    <t>-76.490936</t>
-  </si>
-  <si>
-    <t>-95.677956</t>
-  </si>
-  <si>
-    <t>-75.519722</t>
-  </si>
-  <si>
-    <t>-119.766121</t>
-  </si>
-  <si>
-    <t>-104.984856</t>
-  </si>
-  <si>
-    <t>-86.162643</t>
-  </si>
-  <si>
-    <t>-89.654961</t>
-  </si>
-  <si>
-    <t>-82.999069</t>
-  </si>
-  <si>
-    <t>-74.769913</t>
-  </si>
-  <si>
-    <t>-76.883598</t>
-  </si>
-  <si>
-    <t>-111.888237</t>
-  </si>
-  <si>
-    <t>-96.699654</t>
-  </si>
-  <si>
-    <t>-104.820236</t>
-  </si>
-  <si>
-    <t>-93.603729</t>
-  </si>
-  <si>
-    <t>-72.682198</t>
-  </si>
-  <si>
-    <t>-71.414963</t>
-  </si>
-  <si>
-    <t>-71.063698</t>
-  </si>
-  <si>
-    <t>-73.757874</t>
-  </si>
-  <si>
-    <t>-84.555328</t>
-  </si>
-  <si>
-    <t>-89.384445</t>
-  </si>
-  <si>
-    <t>-71.537994</t>
-  </si>
-  <si>
-    <t>-116.199722</t>
-  </si>
-  <si>
-    <t>-72.580536</t>
-  </si>
-  <si>
-    <t>-69.781693</t>
-  </si>
-  <si>
-    <t>-100.346405</t>
-  </si>
-  <si>
-    <t>-123.030403</t>
-  </si>
-  <si>
-    <t>-93.102211</t>
-  </si>
-  <si>
-    <t>-112.018417</t>
-  </si>
-  <si>
-    <t>-100.783318</t>
-  </si>
-  <si>
-    <t>-122.905014</t>
-  </si>
-  <si>
-    <t>Venue names</t>
-  </si>
-  <si>
-    <t>City names</t>
+    <t>Driving time</t>
+  </si>
+  <si>
+    <t>Available dates size</t>
   </si>
   <si>
     <t>Fri 2018-02-02</t>
@@ -1551,7 +1296,7 @@
     <t>Unassigned</t>
   </si>
   <si>
-    <t>Phoenix, Arizona, Little Rock, Arkansas, Sacramento, California, Denver, Colorado, Hartford, Connecticut, Dover, Delaware, Tallahassee, Florida, Atlanta, Georgia, Boise, Idaho, Springfield, Illinois, Indianapolis, Indiana, Des Moines, Iowa, Topeka, Kansas, Frankfort, Kentucky, Baton Rouge, Louisiana, Augusta, Maine, Annapolis, Maryland, Boston, Massachusetts, Lansing, Michigan, St. Paul, Minnesota, Jackson, Mississippi, Jefferson City, Missouri, Helena, Montana, Lincoln, Nebraska, Carson City, Nevada, Concord, New Hampshire, Trenton, New Jersey, Santa Fe, New Mexico, Raleigh, North Carolina, Bismarck, North Dakota, Albany, New York, Columbus, Ohio, Oklahoma City, Oklahoma, Salem, Oregon, Harrisburg, Pennsylvania, Providence, Rhode Island, Columbia, South Carolina, Pierre, South Dakota, Nashville, Tennessee, Austin, Texas, Salt Lake City, Utah, Montpelier, Vermont, Richmond, Virginia, Olympia, Washington, Charleston, West Virginia, Madison, Wisconsin, Cheyenne, Wyoming</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1668,15 +1413,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="5.0" state="frozen" topLeftCell="B6" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.4921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.86328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="34.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="65.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1687,30 +1432,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>28800.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -1737,27 +1536,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>32.377716</v>
@@ -1766,15 +1565,15 @@
         <v>-86.300568</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>32.377716</v>
@@ -1783,7 +1582,7 @@
         <v>-86.300568</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2117,54 +1916,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2194,7 +1993,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -2227,7 +2026,7 @@
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
@@ -2259,7 +2058,7 @@
       <c r="CQ2" s="2"/>
       <c r="CR2" s="2"/>
       <c r="CS2" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="CT2" s="2"/>
       <c r="CU2" s="2"/>
@@ -2292,7 +2091,7 @@
       <c r="DV2" s="2"/>
       <c r="DW2" s="2"/>
       <c r="DX2" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="DY2" s="2"/>
       <c r="DZ2" s="2"/>
@@ -2324,7 +2123,7 @@
       <c r="EZ2" s="2"/>
       <c r="FA2" s="2"/>
       <c r="FB2" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="FC2" s="2"/>
       <c r="FD2" s="2"/>
@@ -2357,7 +2156,7 @@
       <c r="GE2" s="2"/>
       <c r="GF2" s="2"/>
       <c r="GG2" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="GH2" s="2"/>
       <c r="GI2" s="2"/>
@@ -2390,7 +2189,7 @@
       <c r="HJ2" s="2"/>
       <c r="HK2" s="2"/>
       <c r="HL2" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="HM2" s="2"/>
       <c r="HN2" s="2"/>
@@ -2422,7 +2221,7 @@
       <c r="IN2" s="2"/>
       <c r="IO2" s="2"/>
       <c r="IP2" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="IQ2" s="2"/>
       <c r="IR2" s="2"/>
@@ -2455,7 +2254,7 @@
       <c r="JS2" s="2"/>
       <c r="JT2" s="2"/>
       <c r="JU2" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="JV2" s="2"/>
       <c r="JW2" s="2"/>
@@ -2489,942 +2288,942 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BO3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="CS3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CS3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="DB3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="DD3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="DN3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="DO3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DX3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="DX3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="EB3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="EI3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="ES3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="ET3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="EU3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="EV3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="EW3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="FA3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="FB3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="FF3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="FP3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="FB3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="FC3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="FD3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="FE3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="FF3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="FG3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="FH3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="FI3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="FJ3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="FK3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="FL3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="FM3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="FV3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="FW3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="FX3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="FY3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="FZ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="GA3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="GB3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="GC3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="GD3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="GE3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="GF3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="GG3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="FO3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="FP3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="FV3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="FW3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="FX3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="GD3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="GE3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="GG3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="GH3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="GI3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="GJ3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="GK3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="GL3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="GM3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="GN3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="GO3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="GP3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="GQ3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="GR3" s="1" t="s">
+      <c r="HA3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="HB3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="HC3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="HD3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="HE3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="HF3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="HG3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="HH3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="HI3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="HJ3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="HK3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="HL3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="GS3" s="1" t="s">
+      <c r="HM3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="GT3" s="1" t="s">
+      <c r="HN3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="GU3" s="1" t="s">
+      <c r="HO3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="GV3" s="1" t="s">
+      <c r="HP3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="GW3" s="1" t="s">
+      <c r="HQ3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="GX3" s="1" t="s">
+      <c r="HR3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="GY3" s="1" t="s">
+      <c r="HS3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="GZ3" s="1" t="s">
+      <c r="HT3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="HA3" s="1" t="s">
+      <c r="HU3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="HB3" s="1" t="s">
+      <c r="HV3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="HC3" s="1" t="s">
+      <c r="HW3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="HD3" s="1" t="s">
+      <c r="HX3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="HE3" s="1" t="s">
+      <c r="HY3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HF3" s="1" t="s">
+      <c r="HZ3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="HG3" s="1" t="s">
+      <c r="IA3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="HH3" s="1" t="s">
+      <c r="IB3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="HI3" s="1" t="s">
+      <c r="IC3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="HJ3" s="1" t="s">
+      <c r="ID3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="HK3" s="1" t="s">
+      <c r="IE3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="HL3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="HM3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="HN3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="HO3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="HP3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="HQ3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="HR3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="HS3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="HT3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="HU3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="HV3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="HW3" s="1" t="s">
+      <c r="IF3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="IG3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="IH3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="II3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="IJ3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IK3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="IL3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="IM3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="IN3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="IO3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="IP3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="HX3" s="1" t="s">
+      <c r="IQ3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="HY3" s="1" t="s">
+      <c r="IR3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="HZ3" s="1" t="s">
+      <c r="IS3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="IA3" s="1" t="s">
+      <c r="IT3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="IB3" s="1" t="s">
+      <c r="IU3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="IC3" s="1" t="s">
+      <c r="IV3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="ID3" s="1" t="s">
+      <c r="IW3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="IE3" s="1" t="s">
+      <c r="IX3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="IF3" s="1" t="s">
+      <c r="IY3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="IG3" s="1" t="s">
+      <c r="IZ3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="IH3" s="1" t="s">
+      <c r="JA3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="II3" s="1" t="s">
+      <c r="JB3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="IJ3" s="1" t="s">
+      <c r="JC3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="IK3" s="1" t="s">
+      <c r="JD3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="IL3" s="1" t="s">
+      <c r="JE3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="IM3" s="1" t="s">
+      <c r="JF3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="IN3" s="1" t="s">
+      <c r="JG3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="IO3" s="1" t="s">
+      <c r="JH3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="IP3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="IQ3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="IR3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="IS3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="IT3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="IU3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="IV3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="IW3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="IX3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="IY3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="IZ3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="JA3" s="1" t="s">
+      <c r="JI3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="JJ3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="JK3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="JL3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="JM3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="JN3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="JO3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="JP3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="JQ3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="JR3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="JS3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="JT3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="JU3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="JB3" s="1" t="s">
+      <c r="JV3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="JC3" s="1" t="s">
+      <c r="JW3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="JD3" s="1" t="s">
+      <c r="JX3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="JE3" s="1" t="s">
+      <c r="JY3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="JF3" s="1" t="s">
+      <c r="JZ3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="JG3" s="1" t="s">
+      <c r="KA3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="JH3" s="1" t="s">
+      <c r="KB3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="JI3" s="1" t="s">
+      <c r="KC3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="JJ3" s="1" t="s">
+      <c r="KD3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="JK3" s="1" t="s">
+      <c r="KE3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="JL3" s="1" t="s">
+      <c r="KF3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="JM3" s="1" t="s">
+      <c r="KG3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="JN3" s="1" t="s">
+      <c r="KH3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="JO3" s="1" t="s">
+      <c r="KI3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="JP3" s="1" t="s">
+      <c r="KJ3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="JQ3" s="1" t="s">
+      <c r="KK3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="JR3" s="1" t="s">
+      <c r="KL3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="JS3" s="1" t="s">
+      <c r="KM3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="JT3" s="1" t="s">
+      <c r="KN3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="JU3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="JV3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="JW3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="JX3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="JY3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="JZ3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="KA3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="KB3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="KC3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="KD3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="KE3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="KF3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="KG3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="KH3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="KI3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="KJ3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="KK3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="KL3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="KM3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="KN3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="KO3" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="KP3" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="KQ3" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="KR3" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="KS3" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="KT3" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="KU3" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="KV3" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="KW3" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="KX3" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>33.448143</v>
@@ -3747,10 +3546,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>34.746613</v>
@@ -4073,10 +3872,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>38.576668</v>
@@ -4399,10 +4198,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>39.739227</v>
@@ -4725,10 +4524,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>41.764046</v>
@@ -5051,10 +4850,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>39.157307</v>
@@ -5377,10 +5176,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>30.438118</v>
@@ -5703,10 +5502,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>33.749027</v>
@@ -6029,10 +5828,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>43.617775</v>
@@ -6355,10 +6154,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>39.798363</v>
@@ -6681,10 +6480,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>39.768623</v>
@@ -7007,10 +6806,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>41.591087</v>
@@ -7333,10 +7132,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>39.048191</v>
@@ -7659,10 +7458,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>38.186722</v>
@@ -7985,10 +7784,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>30.457069</v>
@@ -8311,10 +8110,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>44.307167</v>
@@ -8637,10 +8436,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>38.978764</v>
@@ -8963,10 +8762,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>42.358162</v>
@@ -9289,10 +9088,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>42.733635</v>
@@ -9615,10 +9414,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>44.955097</v>
@@ -9941,10 +9740,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>32.303848</v>
@@ -10267,10 +10066,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>38.579201</v>
@@ -10593,10 +10392,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>46.585709</v>
@@ -10919,10 +10718,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>40.808075</v>
@@ -11245,10 +11044,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>39.163914</v>
@@ -11571,10 +11370,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>43.206898</v>
@@ -11897,10 +11696,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>40.220596</v>
@@ -12223,10 +12022,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>35.68224</v>
@@ -12549,10 +12348,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>35.78043</v>
@@ -12875,10 +12674,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>46.82085</v>
@@ -13201,10 +13000,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>42.652843</v>
@@ -13527,10 +13326,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>39.961346</v>
@@ -13853,10 +13652,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>35.492207</v>
@@ -14179,10 +13978,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>44.938461</v>
@@ -14505,10 +14304,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>40.264378</v>
@@ -14831,10 +14630,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>41.830914</v>
@@ -15157,10 +14956,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>34.000343</v>
@@ -15483,10 +15282,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>44.367031</v>
@@ -15809,10 +15608,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>36.16581</v>
@@ -16135,10 +15934,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>30.27467</v>
@@ -16461,10 +16260,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>40.777477</v>
@@ -16787,10 +16586,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44.262436</v>
@@ -17113,10 +16912,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>37.538857</v>
@@ -17439,10 +17238,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>47.035805</v>
@@ -17765,10 +17564,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>38.336246</v>
@@ -18091,10 +17890,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>43.074684</v>
@@ -18417,10 +18216,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>41.140259</v>
@@ -18825,319 +18624,319 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>157</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>30.27467</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>30.438118</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>30.457069</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>32.303848</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>32.377716</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>33.448143</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>33.749027</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>34.000343</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>34.746613</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>35.492207</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>35.68224</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>35.78043</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>36.16581</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>37.538857</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>38.186722</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>38.336246</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>38.576668</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>38.579201</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>38.978764</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>39.048191</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>39.157307</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>39.163914</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>39.739227</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>39.768623</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>39.798363</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>39.961346</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>40.220596</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>40.264378</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>40.777477</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>40.808075</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>41.140259</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>41.591087</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>41.764046</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>41.830914</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>42.358162</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>42.652843</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>42.733635</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>43.074684</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>43.206898</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>43.617775</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>44.262436</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>44.307167</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>44.367031</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>44.938461</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>44.955097</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>46.585709</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>46.82085</v>
+      </c>
+      <c r="AX2" s="1" t="n">
+        <v>47.035805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>205</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>-97.740349</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>-84.281296</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>-91.187393</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>-90.182106</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>-86.300568</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>-112.096962</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>-84.388229</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-81.033211</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-92.288986</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>-97.503342</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>-105.939728</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>-78.639099</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>-86.784241</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>-77.43364</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>-84.875374</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>-81.612328</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>-121.493629</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>-92.172935</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>-76.490936</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>-95.677956</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>-75.519722</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>-119.766121</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>-104.984856</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>-86.162643</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>-89.654961</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>-82.999069</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>-74.769913</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>-76.883598</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>-111.888237</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>-96.699654</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>-104.820236</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>-93.603729</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>-72.682198</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>-71.414963</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>-71.063698</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>-73.757874</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>-84.555328</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>-89.384445</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>-71.537994</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>-116.199722</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>-72.580536</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>-69.781693</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>-100.346405</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>-123.030403</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>-93.102211</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>-112.018417</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>-100.783318</v>
+      </c>
+      <c r="AX3" s="1" t="n">
+        <v>-122.905014</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>158</v>
+      <c r="A4" s="1" t="n">
+        <v>30.27467</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>-97.740349</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0.0</v>
@@ -19285,11 +19084,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
+      <c r="A5" s="1" t="n">
+        <v>30.438118</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>-84.281296</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>360.0</v>
@@ -19437,11 +19236,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
+      <c r="A6" s="1" t="n">
+        <v>30.457069</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>-91.187393</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>662.0</v>
@@ -19589,11 +19388,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>161</v>
+      <c r="A7" s="1" t="n">
+        <v>32.303848</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>-90.182106</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>548.0</v>
@@ -19741,11 +19540,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>162</v>
+      <c r="A8" s="1" t="n">
+        <v>32.377716</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>-86.300568</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>803.0</v>
@@ -19893,11 +19692,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>163</v>
+      <c r="A9" s="1" t="n">
+        <v>33.448143</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>-112.096962</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>801.0</v>
@@ -20045,11 +19844,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>164</v>
+      <c r="A10" s="1" t="n">
+        <v>33.749027</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>-84.388229</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>929.0</v>
@@ -20197,11 +19996,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>165</v>
+      <c r="A11" s="1" t="n">
+        <v>34.000343</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>-81.033211</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>19.0</v>
@@ -20349,11 +20148,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
+      <c r="A12" s="1" t="n">
+        <v>34.746613</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>-92.288986</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>402.0</v>
@@ -20501,11 +20300,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>167</v>
+      <c r="A13" s="1" t="n">
+        <v>35.492207</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>-97.503342</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>24.0</v>
@@ -20653,11 +20452,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>168</v>
+      <c r="A14" s="1" t="n">
+        <v>35.68224</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>-105.939728</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>63.0</v>
@@ -20805,11 +20604,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>169</v>
+      <c r="A15" s="1" t="n">
+        <v>35.78043</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>-78.639099</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>516.0</v>
@@ -20957,11 +20756,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>170</v>
+      <c r="A16" s="1" t="n">
+        <v>36.16581</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>-86.784241</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>9.0</v>
@@ -21109,11 +20908,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>171</v>
+      <c r="A17" s="1" t="n">
+        <v>37.538857</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>-77.43364</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>162.0</v>
@@ -21261,11 +21060,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>172</v>
+      <c r="A18" s="1" t="n">
+        <v>38.186722</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>-84.875374</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>58.0</v>
@@ -21413,11 +21212,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>173</v>
+      <c r="A19" s="1" t="n">
+        <v>38.336246</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>-81.612328</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>49.0</v>
@@ -21565,11 +21364,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>174</v>
+      <c r="A20" s="1" t="n">
+        <v>38.576668</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>-121.493629</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>92.0</v>
@@ -21717,11 +21516,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>175</v>
+      <c r="A21" s="1" t="n">
+        <v>38.579201</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>-92.172935</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>734.0</v>
@@ -21869,11 +21668,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>176</v>
+      <c r="A22" s="1" t="n">
+        <v>38.978764</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>-76.490936</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>656.0</v>
@@ -22021,11 +21820,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>177</v>
+      <c r="A23" s="1" t="n">
+        <v>39.048191</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>-95.677956</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>644.0</v>
@@ -22173,11 +21972,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>178</v>
+      <c r="A24" s="1" t="n">
+        <v>39.157307</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>-75.519722</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>359.0</v>
@@ -22325,11 +22124,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>179</v>
+      <c r="A25" s="1" t="n">
+        <v>39.163914</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>-119.766121</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>225.0</v>
@@ -22477,11 +22276,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>180</v>
+      <c r="A26" s="1" t="n">
+        <v>39.739227</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>-104.984856</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>832.0</v>
@@ -22629,11 +22428,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>181</v>
+      <c r="A27" s="1" t="n">
+        <v>39.768623</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>-86.162643</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>226.0</v>
@@ -22781,11 +22580,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>182</v>
+      <c r="A28" s="1" t="n">
+        <v>39.798363</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>-89.654961</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>635.0</v>
@@ -22933,11 +22732,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>183</v>
+      <c r="A29" s="1" t="n">
+        <v>39.961346</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>-82.999069</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>209.0</v>
@@ -23085,11 +22884,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>184</v>
+      <c r="A30" s="1" t="n">
+        <v>40.220596</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>-74.769913</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>701.0</v>
@@ -23237,11 +23036,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>185</v>
+      <c r="A31" s="1" t="n">
+        <v>40.264378</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>-76.883598</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>761.0</v>
@@ -23389,11 +23188,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>186</v>
+      <c r="A32" s="1" t="n">
+        <v>40.777477</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>-111.888237</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>156.0</v>
@@ -23541,11 +23340,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>187</v>
+      <c r="A33" s="1" t="n">
+        <v>40.808075</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>-96.699654</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>884.0</v>
@@ -23693,11 +23492,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>188</v>
+      <c r="A34" s="1" t="n">
+        <v>41.140259</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>-104.820236</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>543.0</v>
@@ -23845,11 +23644,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>189</v>
+      <c r="A35" s="1" t="n">
+        <v>41.591087</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>-93.603729</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>367.0</v>
@@ -23997,11 +23796,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>190</v>
+      <c r="A36" s="1" t="n">
+        <v>41.764046</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>-72.682198</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>351.0</v>
@@ -24149,11 +23948,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>191</v>
+      <c r="A37" s="1" t="n">
+        <v>41.830914</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>-71.414963</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>610.0</v>
@@ -24301,11 +24100,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>192</v>
+      <c r="A38" s="1" t="n">
+        <v>42.358162</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>-71.063698</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>387.0</v>
@@ -24453,11 +24252,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>193</v>
+      <c r="A39" s="1" t="n">
+        <v>42.652843</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>-73.757874</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>23.0</v>
@@ -24605,11 +24404,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>194</v>
+      <c r="A40" s="1" t="n">
+        <v>42.733635</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>-84.555328</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>383.0</v>
@@ -24757,11 +24556,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>195</v>
+      <c r="A41" s="1" t="n">
+        <v>43.074684</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>-89.384445</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>961.0</v>
@@ -24909,11 +24708,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>196</v>
+      <c r="A42" s="1" t="n">
+        <v>43.206898</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>-71.537994</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>721.0</v>
@@ -25061,11 +24860,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>197</v>
+      <c r="A43" s="1" t="n">
+        <v>43.617775</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>-116.199722</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>322.0</v>
@@ -25213,11 +25012,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>198</v>
+      <c r="A44" s="1" t="n">
+        <v>44.262436</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>-72.580536</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>708.0</v>
@@ -25365,11 +25164,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>199</v>
+      <c r="A45" s="1" t="n">
+        <v>44.307167</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>-69.781693</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>219.0</v>
@@ -25517,11 +25316,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>200</v>
+      <c r="A46" s="1" t="n">
+        <v>44.367031</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>-100.346405</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>268.0</v>
@@ -25669,11 +25468,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>201</v>
+      <c r="A47" s="1" t="n">
+        <v>44.938461</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>-123.030403</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>798.0</v>
@@ -25821,11 +25620,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>202</v>
+      <c r="A48" s="1" t="n">
+        <v>44.955097</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>-93.102211</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>212.0</v>
@@ -25973,11 +25772,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>203</v>
+      <c r="A49" s="1" t="n">
+        <v>46.585709</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>-112.018417</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>658.0</v>
@@ -26125,11 +25924,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>204</v>
+      <c r="A50" s="1" t="n">
+        <v>46.82085</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>-100.783318</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>151.0</v>
@@ -26277,11 +26076,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>205</v>
+      <c r="A51" s="1" t="n">
+        <v>47.035805</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>-122.905014</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>339.0</v>
@@ -26445,3370 +26244,3074 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.2734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="17.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.4921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.37109375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="18.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>7</v>
+      <c r="A11" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
+      <c r="A12" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
+      <c r="A18" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>7</v>
+      <c r="A19" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
+      <c r="A25" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
+      <c r="A26" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
+      <c r="A32" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>7</v>
+      <c r="A33" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
+      <c r="A39" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>7</v>
+      <c r="A40" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>7</v>
+      <c r="A46" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>7</v>
+      <c r="A47" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>7</v>
+      <c r="A53" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>7</v>
+      <c r="A54" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>7</v>
+      <c r="A60" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>7</v>
+      <c r="A61" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>7</v>
+      <c r="A67" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>7</v>
+      <c r="A68" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>7</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>7</v>
+      <c r="A74" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>7</v>
+      <c r="A75" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>7</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>7</v>
+      <c r="A81" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>7</v>
+      <c r="A82" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>7</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>7</v>
+      <c r="A88" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>7</v>
+      <c r="A89" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>7</v>
+      <c r="A95" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>7</v>
+      <c r="A96" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>7</v>
+      <c r="A102" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>7</v>
+      <c r="A103" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>7</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>7</v>
+      <c r="A109" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>7</v>
+      <c r="A110" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>7</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>7</v>
+      <c r="A116" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>7</v>
+      <c r="A117" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>7</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>7</v>
+      <c r="A123" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>7</v>
+      <c r="A124" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>7</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>7</v>
+      <c r="A130" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>7</v>
+      <c r="A131" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>7</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>7</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>7</v>
+      <c r="A137" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>7</v>
+      <c r="A138" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>7</v>
+        <v>259</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>7</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>7</v>
+      <c r="A144" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>7</v>
+      <c r="A145" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>7</v>
+      <c r="A151" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>7</v>
+      <c r="A152" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>7</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>7</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>7</v>
+      <c r="A158" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>7</v>
+      <c r="A159" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>7</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>7</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>7</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>7</v>
+      <c r="A165" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>7</v>
+      <c r="A166" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>7</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>7</v>
+      <c r="A172" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>7</v>
+      <c r="A173" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>7</v>
+        <v>298</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>7</v>
+      <c r="A179" s="3" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>7</v>
+      <c r="A180" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>7</v>
+      <c r="A186" s="3" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>7</v>
+      <c r="A187" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>7</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>7</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>7</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>7</v>
+      <c r="A193" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>7</v>
+      <c r="A194" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>7</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>7</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>7</v>
+        <v>319</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>7</v>
+      <c r="A200" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>7</v>
+      <c r="A201" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>7</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>7</v>
+        <v>323</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>7</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>7</v>
+        <v>325</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>7</v>
+      <c r="A207" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>7</v>
+      <c r="A208" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>7</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>7</v>
+      <c r="A214" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>7</v>
+      <c r="A215" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>7</v>
+        <v>336</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>7</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>7</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>7</v>
+      <c r="A221" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>7</v>
+      <c r="A222" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>7</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>7</v>
+        <v>345</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>7</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>7</v>
+      <c r="A228" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>7</v>
+      <c r="A229" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>7</v>
+        <v>353</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>7</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>7</v>
+      <c r="A235" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>7</v>
+      <c r="A236" s="3" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>7</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>7</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>7</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>7</v>
+        <v>360</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>7</v>
+        <v>361</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>7</v>
+      <c r="A242" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>7</v>
+      <c r="A243" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>7</v>
+        <v>364</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>7</v>
+        <v>366</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>7</v>
+      <c r="A249" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>7</v>
+      <c r="A250" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>7</v>
+        <v>372</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>7</v>
+        <v>373</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>7</v>
+        <v>374</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>7</v>
+      <c r="A256" s="3" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>7</v>
+      <c r="A257" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>7</v>
+        <v>378</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>7</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>7</v>
+        <v>380</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>7</v>
+        <v>381</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>7</v>
+        <v>382</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>7</v>
+      <c r="A263" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>7</v>
+      <c r="A264" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>7</v>
+        <v>385</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>7</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>7</v>
+        <v>387</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>7</v>
+        <v>388</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>7</v>
+        <v>389</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>7</v>
+      <c r="A270" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>7</v>
+      <c r="A271" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>7</v>
+        <v>392</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>7</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>7</v>
+        <v>394</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>7</v>
+        <v>395</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>7</v>
+        <v>396</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>7</v>
+      <c r="A277" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>7</v>
+      <c r="A278" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>7</v>
+        <v>399</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>7</v>
+        <v>400</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>7</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>7</v>
+        <v>402</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>7</v>
+        <v>403</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>7</v>
+      <c r="A284" s="3" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>7</v>
+      <c r="A285" s="3" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>7</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>7</v>
+        <v>407</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>7</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>7</v>
+      <c r="A291" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>7</v>
+      <c r="A292" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>7</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>7</v>
+        <v>414</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>7</v>
+        <v>415</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>7</v>
+        <v>417</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>7</v>
+      <c r="A298" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>7</v>
+      <c r="A299" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>7</v>
+        <v>420</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>7</v>
+        <v>421</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>7</v>
+        <v>423</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>511</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="305"/>
+    <row r="306">
+      <c r="A306" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>42.652843</v>
+      </c>
+      <c r="F306" s="2" t="n">
+        <v>-73.757874</v>
+      </c>
+      <c r="G306" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H306" s="2" t="n">
+        <v>2700000.0</v>
+      </c>
+      <c r="I306" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J306" s="2" t="n">
+        <v>231.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>38.978764</v>
+      </c>
+      <c r="F307" s="2" t="n">
+        <v>-76.490936</v>
+      </c>
+      <c r="G307" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H307" s="2" t="n">
+        <v>1900000.0</v>
+      </c>
+      <c r="I307" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J307" s="2" t="n">
+        <v>215.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>33.749027</v>
+      </c>
+      <c r="F308" s="2" t="n">
+        <v>-84.388229</v>
+      </c>
+      <c r="G308" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H308" s="2" t="n">
+        <v>2200000.0</v>
+      </c>
+      <c r="I308" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J308" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>44.307167</v>
+      </c>
+      <c r="F309" s="2" t="n">
+        <v>-69.781693</v>
+      </c>
+      <c r="G309" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H309" s="2" t="n">
+        <v>200000.0</v>
+      </c>
+      <c r="I309" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="2" t="n">
+        <v>256.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>30.27467</v>
+      </c>
+      <c r="F310" s="2" t="n">
+        <v>-97.740349</v>
+      </c>
+      <c r="G310" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H310" s="2" t="n">
+        <v>200000.0</v>
+      </c>
+      <c r="I310" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J310" s="2" t="n">
+        <v>256.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>30.457069</v>
+      </c>
+      <c r="F311" s="2" t="n">
+        <v>-91.187393</v>
+      </c>
+      <c r="G311" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H311" s="2" t="n">
+        <v>1800000.0</v>
+      </c>
+      <c r="I311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2" t="n">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>46.82085</v>
+      </c>
+      <c r="F312" s="2" t="n">
+        <v>-100.783318</v>
+      </c>
+      <c r="G312" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H312" s="2" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="I312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2" t="n">
+        <v>254.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>43.617775</v>
+      </c>
+      <c r="F313" s="2" t="n">
+        <v>-116.199722</v>
+      </c>
+      <c r="G313" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H313" s="2" t="n">
+        <v>1800000.0</v>
+      </c>
+      <c r="I313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2" t="n">
+        <v>216.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>42.358162</v>
+      </c>
+      <c r="F314" s="2" t="n">
+        <v>-71.063698</v>
+      </c>
+      <c r="G314" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H314" s="2" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="I314" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J314" s="2" t="n">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>39.163914</v>
+      </c>
+      <c r="F315" s="2" t="n">
+        <v>-119.766121</v>
+      </c>
+      <c r="G315" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H315" s="2" t="n">
+        <v>2600000.0</v>
+      </c>
+      <c r="I315" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J315" s="2" t="n">
+        <v>236.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>38.336246</v>
+      </c>
+      <c r="F316" s="2" t="n">
+        <v>-81.612328</v>
+      </c>
+      <c r="G316" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H316" s="2" t="n">
+        <v>700000.0</v>
+      </c>
+      <c r="I316" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J316" s="2" t="n">
+        <v>211.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>41.140259</v>
+      </c>
+      <c r="F317" s="2" t="n">
+        <v>-104.820236</v>
+      </c>
+      <c r="G317" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H317" s="2" t="n">
+        <v>500000.0</v>
+      </c>
+      <c r="I317" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J317" s="2" t="n">
+        <v>232.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>34.000343</v>
+      </c>
+      <c r="F318" s="2" t="n">
+        <v>-81.033211</v>
+      </c>
+      <c r="G318" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H318" s="2" t="n">
+        <v>1900000.0</v>
+      </c>
+      <c r="I318" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J318" s="2" t="n">
+        <v>215.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>39.961346</v>
+      </c>
+      <c r="F319" s="2" t="n">
+        <v>-82.999069</v>
+      </c>
+      <c r="G319" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H319" s="2" t="n">
+        <v>1800000.0</v>
+      </c>
+      <c r="I319" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J319" s="2" t="n">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>43.206898</v>
+      </c>
+      <c r="F320" s="2" t="n">
+        <v>-71.537994</v>
+      </c>
+      <c r="G320" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H320" s="2" t="n">
+        <v>3000000.0</v>
+      </c>
+      <c r="I320" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J320" s="2" t="n">
+        <v>238.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>39.739227</v>
+      </c>
+      <c r="F321" s="2" t="n">
+        <v>-104.984856</v>
+      </c>
+      <c r="G321" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H321" s="2" t="n">
+        <v>2000000.0</v>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>41.591087</v>
+      </c>
+      <c r="F322" s="2" t="n">
+        <v>-93.603729</v>
+      </c>
+      <c r="G322" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H322" s="2" t="n">
+        <v>2900000.0</v>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="n">
+        <v>243.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>39.157307</v>
+      </c>
+      <c r="F323" s="2" t="n">
+        <v>-75.519722</v>
+      </c>
+      <c r="G323" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H323" s="2" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>38.186722</v>
+      </c>
+      <c r="F324" s="2" t="n">
+        <v>-84.875374</v>
+      </c>
+      <c r="G324" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H324" s="2" t="n">
+        <v>1800000.0</v>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="n">
+        <v>246.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>40.264378</v>
+      </c>
+      <c r="F325" s="2" t="n">
+        <v>-76.883598</v>
+      </c>
+      <c r="G325" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H325" s="2" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="n">
+        <v>252.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>41.764046</v>
+      </c>
+      <c r="F326" s="2" t="n">
+        <v>-72.682198</v>
+      </c>
+      <c r="G326" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H326" s="2" t="n">
+        <v>1900000.0</v>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>46.585709</v>
+      </c>
+      <c r="F327" s="2" t="n">
+        <v>-112.018417</v>
+      </c>
+      <c r="G327" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H327" s="2" t="n">
+        <v>1300000.0</v>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="n">
+        <v>215.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>39.768623</v>
+      </c>
+      <c r="F328" s="2" t="n">
+        <v>-86.162643</v>
+      </c>
+      <c r="G328" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H328" s="2" t="n">
+        <v>2600000.0</v>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="n">
+        <v>211.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>32.303848</v>
+      </c>
+      <c r="F329" s="2" t="n">
+        <v>-90.182106</v>
+      </c>
+      <c r="G329" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H329" s="2" t="n">
+        <v>2700000.0</v>
+      </c>
+      <c r="I329" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J329" s="2" t="n">
+        <v>217.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>38.579201</v>
+      </c>
+      <c r="F330" s="2" t="n">
+        <v>-92.172935</v>
+      </c>
+      <c r="G330" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H330" s="2" t="n">
+        <v>1800000.0</v>
+      </c>
+      <c r="I330" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J330" s="2" t="n">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>42.733635</v>
+      </c>
+      <c r="F331" s="2" t="n">
+        <v>-84.555328</v>
+      </c>
+      <c r="G331" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H331" s="2" t="n">
+        <v>2700000.0</v>
+      </c>
+      <c r="I331" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J331" s="2" t="n">
+        <v>226.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>40.808075</v>
+      </c>
+      <c r="F332" s="2" t="n">
+        <v>-96.699654</v>
+      </c>
+      <c r="G332" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H332" s="2" t="n">
+        <v>2800000.0</v>
+      </c>
+      <c r="I332" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J332" s="2" t="n">
+        <v>252.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>34.746613</v>
+      </c>
+      <c r="F333" s="2" t="n">
+        <v>-92.288986</v>
+      </c>
+      <c r="G333" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H333" s="2" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="I333" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>43.074684</v>
+      </c>
+      <c r="F334" s="2" t="n">
+        <v>-89.384445</v>
+      </c>
+      <c r="G334" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H334" s="2" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="I334" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J334" s="2" t="n">
+        <v>258.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>44.262436</v>
+      </c>
+      <c r="F335" s="2" t="n">
+        <v>-72.580536</v>
+      </c>
+      <c r="G335" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H335" s="2" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I335" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J335" s="2" t="n">
+        <v>209.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>36.16581</v>
+      </c>
+      <c r="F336" s="2" t="n">
+        <v>-86.784241</v>
+      </c>
+      <c r="G336" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H336" s="2" t="n">
+        <v>700000.0</v>
+      </c>
+      <c r="I336" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J336" s="2" t="n">
+        <v>241.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>35.492207</v>
+      </c>
+      <c r="F337" s="2" t="n">
+        <v>-97.503342</v>
+      </c>
+      <c r="G337" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H337" s="2" t="n">
+        <v>1200000.0</v>
+      </c>
+      <c r="I337" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J337" s="2" t="n">
+        <v>218.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>47.035805</v>
+      </c>
+      <c r="F338" s="2" t="n">
+        <v>-122.905014</v>
+      </c>
+      <c r="G338" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H338" s="2" t="n">
+        <v>1800000.0</v>
+      </c>
+      <c r="I338" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J338" s="2" t="n">
+        <v>222.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>33.448143</v>
+      </c>
+      <c r="F339" s="2" t="n">
+        <v>-112.096962</v>
+      </c>
+      <c r="G339" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H339" s="2" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="I339" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>44.367031</v>
+      </c>
+      <c r="F340" s="2" t="n">
+        <v>-100.346405</v>
+      </c>
+      <c r="G340" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H340" s="2" t="n">
+        <v>1400000.0</v>
+      </c>
+      <c r="I340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J340" s="2" t="n">
+        <v>226.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>41.830914</v>
+      </c>
+      <c r="F341" s="2" t="n">
+        <v>-71.414963</v>
+      </c>
+      <c r="G341" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H341" s="2" t="n">
+        <v>2900000.0</v>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="n">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>35.78043</v>
+      </c>
+      <c r="F342" s="2" t="n">
+        <v>-78.639099</v>
+      </c>
+      <c r="G342" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H342" s="2" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="n">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>37.538857</v>
+      </c>
+      <c r="F343" s="2" t="n">
+        <v>-77.43364</v>
+      </c>
+      <c r="G343" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H343" s="2" t="n">
+        <v>2400000.0</v>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="n">
+        <v>224.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>38.576668</v>
+      </c>
+      <c r="F344" s="2" t="n">
+        <v>-121.493629</v>
+      </c>
+      <c r="G344" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H344" s="2" t="n">
+        <v>2400000.0</v>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>44.938461</v>
+      </c>
+      <c r="F345" s="2" t="n">
+        <v>-123.030403</v>
+      </c>
+      <c r="G345" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H345" s="2" t="n">
+        <v>1200000.0</v>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="n">
+        <v>231.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>40.777477</v>
+      </c>
+      <c r="F346" s="2" t="n">
+        <v>-111.888237</v>
+      </c>
+      <c r="G346" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H346" s="2" t="n">
+        <v>1600000.0</v>
+      </c>
+      <c r="I346" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J346" s="2" t="n">
+        <v>227.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>35.68224</v>
+      </c>
+      <c r="F347" s="2" t="n">
+        <v>-105.939728</v>
+      </c>
+      <c r="G347" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H347" s="2" t="n">
+        <v>1200000.0</v>
+      </c>
+      <c r="I347" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J347" s="2" t="n">
+        <v>254.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>39.798363</v>
+      </c>
+      <c r="F348" s="2" t="n">
+        <v>-89.654961</v>
+      </c>
+      <c r="G348" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H348" s="2" t="n">
+        <v>2300000.0</v>
+      </c>
+      <c r="I348" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J348" s="2" t="n">
+        <v>214.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>44.955097</v>
+      </c>
+      <c r="F349" s="2" t="n">
+        <v>-93.102211</v>
+      </c>
+      <c r="G349" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H349" s="2" t="n">
+        <v>600000.0</v>
+      </c>
+      <c r="I349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J349" s="2" t="n">
+        <v>248.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>30.438118</v>
+      </c>
+      <c r="F350" s="2" t="n">
+        <v>-84.281296</v>
+      </c>
+      <c r="G350" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H350" s="2" t="n">
+        <v>2400000.0</v>
+      </c>
+      <c r="I350" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J350" s="2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>39.048191</v>
+      </c>
+      <c r="F351" s="2" t="n">
+        <v>-95.677956</v>
+      </c>
+      <c r="G351" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H351" s="2" t="n">
+        <v>2900000.0</v>
+      </c>
+      <c r="I351" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J351" s="2" t="n">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>40.220596</v>
+      </c>
+      <c r="F352" s="2" t="n">
+        <v>-74.769913</v>
+      </c>
+      <c r="G352" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H352" s="2" t="n">
+        <v>1100000.0</v>
+      </c>
+      <c r="I352" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J352" s="2" t="n">
+        <v>227.0</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/rocktour/unsolved/48shows.xlsx
+++ b/optaplanner-examples/data/rocktour/unsolved/48shows.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="430">
   <si>
     <t>Tour name</t>
   </si>
@@ -384,6 +384,9 @@
     <t>Driving time</t>
   </si>
   <si>
+    <t>Driving time per week</t>
+  </si>
+  <si>
     <t>Available dates size</t>
   </si>
   <si>
@@ -396,6 +399,9 @@
     <t>Sun 2018-02-04</t>
   </si>
   <si>
+    <t>0 hours 0 minutes</t>
+  </si>
+  <si>
     <t>Mon 2018-02-05</t>
   </si>
   <si>
@@ -1297,6 +1303,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Total revenue opportunity loss</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -26250,16 +26259,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.10546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.16796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.2734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.2734375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="21.2421875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="17.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="20.4921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="9.37109375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="18.91796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.1640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="20.4921875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="9.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -26276,1689 +26286,2699 @@
         <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>122</v>
+      <c r="K1" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>152</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>176</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>185</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>187</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>201</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>206</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>208</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>210</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>224</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>226</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>229</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>233</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>234</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>240</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>243</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>246</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>247</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>253</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>257</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>260</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>264</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>267</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>268</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>269</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>273</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>278</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>280</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>281</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>282</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>283</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>284</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>285</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>288</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>289</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>291</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>295</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>297</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>302</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>304</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>305</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>306</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>308</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>310</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>311</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>315</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>317</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>318</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>319</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>320</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>324</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>325</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>326</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>327</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
+      </c>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>329</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>330</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>331</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>332</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>333</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>334</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>337</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>338</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>339</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>340</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>341</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>343</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>344</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>345</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>346</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>347</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>348</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>353</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>354</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>359</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>360</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>361</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
+      </c>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>364</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>367</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>368</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="3" t="s">
-        <v>369</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>371</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>372</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>374</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>375</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
+      </c>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>379</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>380</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>381</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>382</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>383</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
+      </c>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>385</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>386</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>387</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>388</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>389</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="3" t="s">
-        <v>390</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>392</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>393</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>395</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>396</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="3" t="s">
-        <v>397</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>399</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>400</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>401</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>402</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>403</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>404</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>407</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>408</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>409</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>410</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="3" t="s">
-        <v>411</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
+      </c>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>413</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>414</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>415</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>416</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>417</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>418</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
+      </c>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>420</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>421</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>422</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>423</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
     </row>
     <row r="305"/>
-    <row r="306">
-      <c r="A306" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E306" s="2" t="n">
-        <v>42.652843</v>
-      </c>
-      <c r="F306" s="2" t="n">
-        <v>-73.757874</v>
-      </c>
-      <c r="G306" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H306" s="2" t="n">
-        <v>2700000.0</v>
-      </c>
-      <c r="I306" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J306" s="2" t="n">
-        <v>231.0</v>
-      </c>
-    </row>
+    <row r="306"/>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E307" s="2" t="n">
-        <v>38.978764</v>
+        <v>42.652843</v>
       </c>
       <c r="F307" s="2" t="n">
-        <v>-76.490936</v>
+        <v>-73.757874</v>
       </c>
       <c r="G307" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H307" s="2" t="n">
-        <v>1900000.0</v>
+        <v>2700000.0</v>
       </c>
       <c r="I307" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J307" s="2" t="n">
-        <v>215.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E308" s="2" t="n">
-        <v>33.749027</v>
+        <v>38.978764</v>
       </c>
       <c r="F308" s="2" t="n">
-        <v>-84.388229</v>
+        <v>-76.490936</v>
       </c>
       <c r="G308" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>2200000.0</v>
+        <v>1900000.0</v>
       </c>
       <c r="I308" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J308" s="2" t="n">
-        <v>1.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>44.307167</v>
+        <v>33.749027</v>
       </c>
       <c r="F309" s="2" t="n">
-        <v>-69.781693</v>
+        <v>-84.388229</v>
       </c>
       <c r="G309" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H309" s="2" t="n">
-        <v>200000.0</v>
+        <v>2200000.0</v>
       </c>
       <c r="I309" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J309" s="2" t="n">
-        <v>256.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E310" s="2" t="n">
-        <v>30.27467</v>
+        <v>44.307167</v>
       </c>
       <c r="F310" s="2" t="n">
-        <v>-97.740349</v>
+        <v>-69.781693</v>
       </c>
       <c r="G310" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H310" s="2" t="n">
         <v>200000.0</v>
@@ -27972,1078 +28992,1078 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>30.457069</v>
+        <v>30.27467</v>
       </c>
       <c r="F311" s="2" t="n">
-        <v>-91.187393</v>
+        <v>-97.740349</v>
       </c>
       <c r="G311" s="2" t="n">
-        <v>2.0</v>
+        <v>0.5</v>
       </c>
       <c r="H311" s="2" t="n">
-        <v>1800000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="I311" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J311" s="2" t="n">
-        <v>235.0</v>
+        <v>256.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>46.82085</v>
+        <v>30.457069</v>
       </c>
       <c r="F312" s="2" t="n">
-        <v>-100.783318</v>
+        <v>-91.187393</v>
       </c>
       <c r="G312" s="2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H312" s="2" t="n">
-        <v>400000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="I312" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J312" s="2" t="n">
-        <v>254.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>43.617775</v>
+        <v>46.82085</v>
       </c>
       <c r="F313" s="2" t="n">
-        <v>-116.199722</v>
+        <v>-100.783318</v>
       </c>
       <c r="G313" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H313" s="2" t="n">
-        <v>1800000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="I313" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J313" s="2" t="n">
-        <v>216.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E314" s="2" t="n">
-        <v>42.358162</v>
+        <v>43.617775</v>
       </c>
       <c r="F314" s="2" t="n">
-        <v>-71.063698</v>
+        <v>-116.199722</v>
       </c>
       <c r="G314" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H314" s="2" t="n">
-        <v>600000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="I314" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J314" s="2" t="n">
-        <v>225.0</v>
+        <v>216.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>39.163914</v>
+        <v>42.358162</v>
       </c>
       <c r="F315" s="2" t="n">
-        <v>-119.766121</v>
+        <v>-71.063698</v>
       </c>
       <c r="G315" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H315" s="2" t="n">
-        <v>2600000.0</v>
+        <v>600000.0</v>
       </c>
       <c r="I315" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J315" s="2" t="n">
-        <v>236.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E316" s="2" t="n">
-        <v>38.336246</v>
+        <v>39.163914</v>
       </c>
       <c r="F316" s="2" t="n">
-        <v>-81.612328</v>
+        <v>-119.766121</v>
       </c>
       <c r="G316" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H316" s="2" t="n">
-        <v>700000.0</v>
+        <v>2600000.0</v>
       </c>
       <c r="I316" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J316" s="2" t="n">
-        <v>211.0</v>
+        <v>236.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>41.140259</v>
+        <v>38.336246</v>
       </c>
       <c r="F317" s="2" t="n">
-        <v>-104.820236</v>
+        <v>-81.612328</v>
       </c>
       <c r="G317" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H317" s="2" t="n">
-        <v>500000.0</v>
+        <v>700000.0</v>
       </c>
       <c r="I317" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J317" s="2" t="n">
-        <v>232.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E318" s="2" t="n">
-        <v>34.000343</v>
+        <v>41.140259</v>
       </c>
       <c r="F318" s="2" t="n">
-        <v>-81.033211</v>
+        <v>-104.820236</v>
       </c>
       <c r="G318" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H318" s="2" t="n">
-        <v>1900000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="I318" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J318" s="2" t="n">
-        <v>215.0</v>
+        <v>232.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>39.961346</v>
+        <v>34.000343</v>
       </c>
       <c r="F319" s="2" t="n">
-        <v>-82.999069</v>
+        <v>-81.033211</v>
       </c>
       <c r="G319" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H319" s="2" t="n">
-        <v>1800000.0</v>
+        <v>1900000.0</v>
       </c>
       <c r="I319" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J319" s="2" t="n">
-        <v>250.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>43.206898</v>
+        <v>39.961346</v>
       </c>
       <c r="F320" s="2" t="n">
-        <v>-71.537994</v>
+        <v>-82.999069</v>
       </c>
       <c r="G320" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H320" s="2" t="n">
-        <v>3000000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="I320" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J320" s="2" t="n">
-        <v>238.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>39.739227</v>
+        <v>43.206898</v>
       </c>
       <c r="F321" s="2" t="n">
-        <v>-104.984856</v>
+        <v>-71.537994</v>
       </c>
       <c r="G321" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H321" s="2" t="n">
-        <v>2000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="I321" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J321" s="2" t="n">
-        <v>1.0</v>
+        <v>238.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E322" s="2" t="n">
-        <v>41.591087</v>
+        <v>39.739227</v>
       </c>
       <c r="F322" s="2" t="n">
-        <v>-93.603729</v>
+        <v>-104.984856</v>
       </c>
       <c r="G322" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H322" s="2" t="n">
-        <v>2900000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="I322" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J322" s="2" t="n">
-        <v>243.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>39.157307</v>
+        <v>41.591087</v>
       </c>
       <c r="F323" s="2" t="n">
-        <v>-75.519722</v>
+        <v>-93.603729</v>
       </c>
       <c r="G323" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H323" s="2" t="n">
-        <v>100000.0</v>
+        <v>2900000.0</v>
       </c>
       <c r="I323" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J323" s="2" t="n">
-        <v>1.0</v>
+        <v>243.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>38.186722</v>
+        <v>39.157307</v>
       </c>
       <c r="F324" s="2" t="n">
-        <v>-84.875374</v>
+        <v>-75.519722</v>
       </c>
       <c r="G324" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H324" s="2" t="n">
-        <v>1800000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="I324" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J324" s="2" t="n">
-        <v>246.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>40.264378</v>
+        <v>38.186722</v>
       </c>
       <c r="F325" s="2" t="n">
-        <v>-76.883598</v>
+        <v>-84.875374</v>
       </c>
       <c r="G325" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H325" s="2" t="n">
-        <v>100000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="I325" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J325" s="2" t="n">
-        <v>252.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>41.764046</v>
+        <v>40.264378</v>
       </c>
       <c r="F326" s="2" t="n">
-        <v>-72.682198</v>
+        <v>-76.883598</v>
       </c>
       <c r="G326" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="H326" s="2" t="n">
-        <v>1900000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="I326" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J326" s="2" t="n">
-        <v>1.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E327" s="2" t="n">
-        <v>46.585709</v>
+        <v>41.764046</v>
       </c>
       <c r="F327" s="2" t="n">
-        <v>-112.018417</v>
+        <v>-72.682198</v>
       </c>
       <c r="G327" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="H327" s="2" t="n">
-        <v>1300000.0</v>
+        <v>1900000.0</v>
       </c>
       <c r="I327" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J327" s="2" t="n">
-        <v>215.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E328" s="2" t="n">
-        <v>39.768623</v>
+        <v>46.585709</v>
       </c>
       <c r="F328" s="2" t="n">
-        <v>-86.162643</v>
+        <v>-112.018417</v>
       </c>
       <c r="G328" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H328" s="2" t="n">
-        <v>2600000.0</v>
+        <v>1300000.0</v>
       </c>
       <c r="I328" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J328" s="2" t="n">
-        <v>211.0</v>
+        <v>215.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>32.303848</v>
+        <v>39.768623</v>
       </c>
       <c r="F329" s="2" t="n">
-        <v>-90.182106</v>
+        <v>-86.162643</v>
       </c>
       <c r="G329" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H329" s="2" t="n">
-        <v>2700000.0</v>
+        <v>2600000.0</v>
       </c>
       <c r="I329" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J329" s="2" t="n">
-        <v>217.0</v>
+        <v>211.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E330" s="2" t="n">
-        <v>38.579201</v>
+        <v>32.303848</v>
       </c>
       <c r="F330" s="2" t="n">
-        <v>-92.172935</v>
+        <v>-90.182106</v>
       </c>
       <c r="G330" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H330" s="2" t="n">
-        <v>1800000.0</v>
+        <v>2700000.0</v>
       </c>
       <c r="I330" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J330" s="2" t="n">
-        <v>235.0</v>
+        <v>217.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>42.733635</v>
+        <v>38.579201</v>
       </c>
       <c r="F331" s="2" t="n">
-        <v>-84.555328</v>
+        <v>-92.172935</v>
       </c>
       <c r="G331" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H331" s="2" t="n">
-        <v>2700000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="I331" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J331" s="2" t="n">
-        <v>226.0</v>
+        <v>235.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E332" s="2" t="n">
-        <v>40.808075</v>
+        <v>42.733635</v>
       </c>
       <c r="F332" s="2" t="n">
-        <v>-96.699654</v>
+        <v>-84.555328</v>
       </c>
       <c r="G332" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H332" s="2" t="n">
-        <v>2800000.0</v>
+        <v>2700000.0</v>
       </c>
       <c r="I332" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J332" s="2" t="n">
-        <v>252.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>34.746613</v>
+        <v>40.808075</v>
       </c>
       <c r="F333" s="2" t="n">
-        <v>-92.288986</v>
+        <v>-96.699654</v>
       </c>
       <c r="G333" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H333" s="2" t="n">
-        <v>300000.0</v>
+        <v>2800000.0</v>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="n">
-        <v>1.0</v>
+        <v>252.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E334" s="2" t="n">
-        <v>43.074684</v>
+        <v>34.746613</v>
       </c>
       <c r="F334" s="2" t="n">
-        <v>-89.384445</v>
+        <v>-92.288986</v>
       </c>
       <c r="G334" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H334" s="2" t="n">
-        <v>600000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="I334" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" s="2" t="n">
-        <v>258.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>44.262436</v>
+        <v>43.074684</v>
       </c>
       <c r="F335" s="2" t="n">
-        <v>-72.580536</v>
+        <v>-89.384445</v>
       </c>
       <c r="G335" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H335" s="2" t="n">
-        <v>100000.0</v>
+        <v>600000.0</v>
       </c>
       <c r="I335" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J335" s="2" t="n">
-        <v>209.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E336" s="2" t="n">
-        <v>36.16581</v>
+        <v>44.262436</v>
       </c>
       <c r="F336" s="2" t="n">
-        <v>-86.784241</v>
+        <v>-72.580536</v>
       </c>
       <c r="G336" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H336" s="2" t="n">
-        <v>700000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="I336" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J336" s="2" t="n">
-        <v>241.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>35.492207</v>
+        <v>36.16581</v>
       </c>
       <c r="F337" s="2" t="n">
-        <v>-97.503342</v>
+        <v>-86.784241</v>
       </c>
       <c r="G337" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H337" s="2" t="n">
-        <v>1200000.0</v>
+        <v>700000.0</v>
       </c>
       <c r="I337" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J337" s="2" t="n">
-        <v>218.0</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E338" s="2" t="n">
-        <v>47.035805</v>
+        <v>35.492207</v>
       </c>
       <c r="F338" s="2" t="n">
-        <v>-122.905014</v>
+        <v>-97.503342</v>
       </c>
       <c r="G338" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H338" s="2" t="n">
-        <v>1800000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="I338" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J338" s="2" t="n">
-        <v>222.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>33.448143</v>
+        <v>47.035805</v>
       </c>
       <c r="F339" s="2" t="n">
-        <v>-112.096962</v>
+        <v>-122.905014</v>
       </c>
       <c r="G339" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H339" s="2" t="n">
-        <v>100000.0</v>
+        <v>1800000.0</v>
       </c>
       <c r="I339" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J339" s="2" t="n">
-        <v>1.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>44.367031</v>
+        <v>33.448143</v>
       </c>
       <c r="F340" s="2" t="n">
-        <v>-100.346405</v>
+        <v>-112.096962</v>
       </c>
       <c r="G340" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H340" s="2" t="n">
-        <v>1400000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="I340" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J340" s="2" t="n">
-        <v>226.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>41.830914</v>
+        <v>44.367031</v>
       </c>
       <c r="F341" s="2" t="n">
-        <v>-71.414963</v>
+        <v>-100.346405</v>
       </c>
       <c r="G341" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H341" s="2" t="n">
-        <v>2900000.0</v>
+        <v>1400000.0</v>
       </c>
       <c r="I341" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J341" s="2" t="n">
-        <v>225.0</v>
+        <v>226.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E342" s="2" t="n">
-        <v>35.78043</v>
+        <v>41.830914</v>
       </c>
       <c r="F342" s="2" t="n">
-        <v>-78.639099</v>
+        <v>-71.414963</v>
       </c>
       <c r="G342" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="H342" s="2" t="n">
-        <v>600000.0</v>
+        <v>2900000.0</v>
       </c>
       <c r="I342" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J342" s="2" t="n">
-        <v>250.0</v>
+        <v>225.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>37.538857</v>
+        <v>35.78043</v>
       </c>
       <c r="F343" s="2" t="n">
-        <v>-77.43364</v>
+        <v>-78.639099</v>
       </c>
       <c r="G343" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="H343" s="2" t="n">
-        <v>2400000.0</v>
+        <v>600000.0</v>
       </c>
       <c r="I343" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J343" s="2" t="n">
-        <v>224.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>38.576668</v>
+        <v>37.538857</v>
       </c>
       <c r="F344" s="2" t="n">
-        <v>-121.493629</v>
+        <v>-77.43364</v>
       </c>
       <c r="G344" s="2" t="n">
         <v>0.5</v>
@@ -29052,266 +30072,312 @@
         <v>2400000.0</v>
       </c>
       <c r="I344" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" s="2" t="n">
-        <v>1.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>44.938461</v>
+        <v>38.576668</v>
       </c>
       <c r="F345" s="2" t="n">
-        <v>-123.030403</v>
+        <v>-121.493629</v>
       </c>
       <c r="G345" s="2" t="n">
         <v>0.5</v>
       </c>
       <c r="H345" s="2" t="n">
-        <v>1200000.0</v>
+        <v>2400000.0</v>
       </c>
       <c r="I345" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" s="2" t="n">
-        <v>231.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E346" s="2" t="n">
-        <v>40.777477</v>
+        <v>44.938461</v>
       </c>
       <c r="F346" s="2" t="n">
-        <v>-111.888237</v>
+        <v>-123.030403</v>
       </c>
       <c r="G346" s="2" t="n">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="H346" s="2" t="n">
-        <v>1600000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="I346" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J346" s="2" t="n">
-        <v>227.0</v>
+        <v>231.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>35.68224</v>
+        <v>40.777477</v>
       </c>
       <c r="F347" s="2" t="n">
-        <v>-105.939728</v>
+        <v>-111.888237</v>
       </c>
       <c r="G347" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>1200000.0</v>
+        <v>1600000.0</v>
       </c>
       <c r="I347" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J347" s="2" t="n">
-        <v>254.0</v>
+        <v>227.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>39.798363</v>
+        <v>35.68224</v>
       </c>
       <c r="F348" s="2" t="n">
-        <v>-89.654961</v>
+        <v>-105.939728</v>
       </c>
       <c r="G348" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H348" s="2" t="n">
-        <v>2300000.0</v>
+        <v>1200000.0</v>
       </c>
       <c r="I348" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J348" s="2" t="n">
-        <v>214.0</v>
+        <v>254.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>44.955097</v>
+        <v>39.798363</v>
       </c>
       <c r="F349" s="2" t="n">
-        <v>-93.102211</v>
+        <v>-89.654961</v>
       </c>
       <c r="G349" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H349" s="2" t="n">
-        <v>600000.0</v>
+        <v>2300000.0</v>
       </c>
       <c r="I349" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J349" s="2" t="n">
-        <v>248.0</v>
+        <v>214.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E350" s="2" t="n">
-        <v>30.438118</v>
+        <v>44.955097</v>
       </c>
       <c r="F350" s="2" t="n">
-        <v>-84.281296</v>
+        <v>-93.102211</v>
       </c>
       <c r="G350" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H350" s="2" t="n">
-        <v>2400000.0</v>
+        <v>600000.0</v>
       </c>
       <c r="I350" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J350" s="2" t="n">
-        <v>1.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>39.048191</v>
+        <v>30.438118</v>
       </c>
       <c r="F351" s="2" t="n">
-        <v>-95.677956</v>
+        <v>-84.281296</v>
       </c>
       <c r="G351" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="H351" s="2" t="n">
-        <v>2900000.0</v>
+        <v>2400000.0</v>
       </c>
       <c r="I351" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J351" s="2" t="n">
-        <v>235.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>40.220596</v>
+        <v>39.048191</v>
       </c>
       <c r="F352" s="2" t="n">
-        <v>-74.769913</v>
+        <v>-95.677956</v>
       </c>
       <c r="G352" s="2" t="n">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="H352" s="2" t="n">
-        <v>1100000.0</v>
+        <v>2900000.0</v>
       </c>
       <c r="I352" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J352" s="2" t="n">
+        <v>235.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>40.220596</v>
+      </c>
+      <c r="F353" s="2" t="n">
+        <v>-74.769913</v>
+      </c>
+      <c r="G353" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H353" s="2" t="n">
+        <v>1100000.0</v>
+      </c>
+      <c r="I353" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J353" s="2" t="n">
         <v>227.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
+      <c r="H354" s="2" t="n">
+        <v>7.28E7</v>
       </c>
     </row>
   </sheetData>

--- a/optaplanner-examples/data/rocktour/unsolved/48shows.xlsx
+++ b/optaplanner-examples/data/rocktour/unsolved/48shows.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="436">
   <si>
     <t>Tour name</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>Maximum driving time in seconds per night between 2 shows.</t>
+  </si>
+  <si>
+    <t>HOS week driving seconds budget</t>
+  </si>
+  <si>
+    <t>Maximum driving time in seconds since last weekend rest.</t>
+  </si>
+  <si>
+    <t>HOS week consecutive driving days budget</t>
+  </si>
+  <si>
+    <t>Maximum driving days since last weekend rest.</t>
+  </si>
+  <si>
+    <t>HOS week rest days</t>
+  </si>
+  <si>
+    <t>Minimum weekend rest in days (actually in full night sleeps: 2 days guarantees only 32 hours).</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -1422,15 +1440,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="5.0" state="frozen" topLeftCell="B6" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="8.0" state="frozen" topLeftCell="B9" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.86328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.13671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="65.3359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="86.96875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1457,52 +1475,52 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>28800.0</v>
+        <v>25200.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>180000.0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>7.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    </row>
+    <row r="7"/>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -1513,10 +1531,43 @@
         <v>15</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1545,27 +1596,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>32.377716</v>
@@ -1574,15 +1625,15 @@
         <v>-86.300568</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>32.377716</v>
@@ -1591,7 +1642,7 @@
         <v>-86.300568</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1925,54 +1976,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2002,7 +2053,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -2035,7 +2086,7 @@
       <c r="BM2" s="2"/>
       <c r="BN2" s="2"/>
       <c r="BO2" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="BP2" s="2"/>
       <c r="BQ2" s="2"/>
@@ -2067,7 +2118,7 @@
       <c r="CQ2" s="2"/>
       <c r="CR2" s="2"/>
       <c r="CS2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="CT2" s="2"/>
       <c r="CU2" s="2"/>
@@ -2100,7 +2151,7 @@
       <c r="DV2" s="2"/>
       <c r="DW2" s="2"/>
       <c r="DX2" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="DY2" s="2"/>
       <c r="DZ2" s="2"/>
@@ -2132,7 +2183,7 @@
       <c r="EZ2" s="2"/>
       <c r="FA2" s="2"/>
       <c r="FB2" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="FC2" s="2"/>
       <c r="FD2" s="2"/>
@@ -2165,7 +2216,7 @@
       <c r="GE2" s="2"/>
       <c r="GF2" s="2"/>
       <c r="GG2" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="GH2" s="2"/>
       <c r="GI2" s="2"/>
@@ -2198,7 +2249,7 @@
       <c r="HJ2" s="2"/>
       <c r="HK2" s="2"/>
       <c r="HL2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="HM2" s="2"/>
       <c r="HN2" s="2"/>
@@ -2230,7 +2281,7 @@
       <c r="IN2" s="2"/>
       <c r="IO2" s="2"/>
       <c r="IP2" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="IQ2" s="2"/>
       <c r="IR2" s="2"/>
@@ -2263,7 +2314,7 @@
       <c r="JS2" s="2"/>
       <c r="JT2" s="2"/>
       <c r="JU2" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="JV2" s="2"/>
       <c r="JW2" s="2"/>
@@ -2297,942 +2348,942 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="BE3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="BQ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BU3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="BV3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="BW3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BY3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BZ3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="CA3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BE3" s="1" t="s">
+      <c r="CD3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BF3" s="1" t="s">
+      <c r="CE3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BG3" s="1" t="s">
+      <c r="CF3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BH3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BK3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BL3" s="1" t="s">
+      <c r="CK3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BM3" s="1" t="s">
+      <c r="CL3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BN3" s="1" t="s">
+      <c r="CM3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BO3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BU3" s="1" t="s">
+      <c r="CN3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CS3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BV3" s="1" t="s">
+      <c r="CT3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BW3" s="1" t="s">
+      <c r="CU3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CV3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BY3" s="1" t="s">
+      <c r="CW3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BZ3" s="1" t="s">
+      <c r="CX3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CY3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CZ3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CC3" s="1" t="s">
+      <c r="DA3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="DB3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CE3" s="1" t="s">
+      <c r="DC3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="DD3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="DE3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="DH3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="CK3" s="1" t="s">
+      <c r="DI3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="CL3" s="1" t="s">
+      <c r="DJ3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="DK3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="CN3" s="1" t="s">
+      <c r="DL3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CO3" s="1" t="s">
+      <c r="DM3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CP3" s="1" t="s">
+      <c r="DN3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="DP3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CS3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CY3" s="1" t="s">
+      <c r="DQ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DX3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CZ3" s="1" t="s">
+      <c r="DY3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="DA3" s="1" t="s">
+      <c r="DZ3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="DB3" s="1" t="s">
+      <c r="EA3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="DC3" s="1" t="s">
+      <c r="EB3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="DD3" s="1" t="s">
+      <c r="EC3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="DE3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="DF3" s="1" t="s">
+      <c r="EE3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DG3" s="1" t="s">
+      <c r="EF3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DH3" s="1" t="s">
+      <c r="EG3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DI3" s="1" t="s">
+      <c r="EH3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="DJ3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="DK3" s="1" t="s">
+      <c r="EJ3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="DL3" s="1" t="s">
+      <c r="EK3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="DM3" s="1" t="s">
+      <c r="EL3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="DN3" s="1" t="s">
+      <c r="EM3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="DO3" s="1" t="s">
+      <c r="EN3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="DP3" s="1" t="s">
+      <c r="EO3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="DQ3" s="1" t="s">
+      <c r="EP3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="DR3" s="1" t="s">
+      <c r="EQ3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="DS3" s="1" t="s">
+      <c r="ER3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="DT3" s="1" t="s">
+      <c r="ES3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="DU3" s="1" t="s">
+      <c r="ET3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="DV3" s="1" t="s">
+      <c r="EU3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="DW3" s="1" t="s">
+      <c r="EV3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="DX3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="EB3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="ED3" s="1" t="s">
+      <c r="EW3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="EX3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="EY3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="EZ3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="FA3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="FB3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="EE3" s="1" t="s">
+      <c r="FC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="EF3" s="1" t="s">
+      <c r="FD3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="EG3" s="1" t="s">
+      <c r="FE3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="EH3" s="1" t="s">
+      <c r="FF3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="EI3" s="1" t="s">
+      <c r="FG3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="EJ3" s="1" t="s">
+      <c r="FH3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="EK3" s="1" t="s">
+      <c r="FI3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EL3" s="1" t="s">
+      <c r="FJ3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EM3" s="1" t="s">
+      <c r="FK3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EN3" s="1" t="s">
+      <c r="FL3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="EO3" s="1" t="s">
+      <c r="FM3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="EP3" s="1" t="s">
+      <c r="FN3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="EQ3" s="1" t="s">
+      <c r="FO3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="ER3" s="1" t="s">
+      <c r="FP3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="ES3" s="1" t="s">
+      <c r="FQ3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="ET3" s="1" t="s">
+      <c r="FR3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="EU3" s="1" t="s">
+      <c r="FS3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="EV3" s="1" t="s">
+      <c r="FT3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="EW3" s="1" t="s">
+      <c r="FU3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="EX3" s="1" t="s">
+      <c r="FV3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="EY3" s="1" t="s">
+      <c r="FW3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="EZ3" s="1" t="s">
+      <c r="FX3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="FA3" s="1" t="s">
+      <c r="FY3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="FB3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="FC3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="FD3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="FE3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="FF3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="FG3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="FH3" s="1" t="s">
+      <c r="FZ3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="GA3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="GB3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="GC3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="GD3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="GE3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="GF3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="GG3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="FI3" s="1" t="s">
+      <c r="GH3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="FJ3" s="1" t="s">
+      <c r="GI3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="FK3" s="1" t="s">
+      <c r="GJ3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="FL3" s="1" t="s">
+      <c r="GK3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="FM3" s="1" t="s">
+      <c r="GL3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="FN3" s="1" t="s">
+      <c r="GM3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="FO3" s="1" t="s">
+      <c r="GN3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="FP3" s="1" t="s">
+      <c r="GO3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="FQ3" s="1" t="s">
+      <c r="GP3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FR3" s="1" t="s">
+      <c r="GQ3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="FS3" s="1" t="s">
+      <c r="GR3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="FT3" s="1" t="s">
+      <c r="GS3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="FU3" s="1" t="s">
+      <c r="GT3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="FV3" s="1" t="s">
+      <c r="GU3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="FW3" s="1" t="s">
+      <c r="GV3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="FX3" s="1" t="s">
+      <c r="GW3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="FY3" s="1" t="s">
+      <c r="GX3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="FZ3" s="1" t="s">
+      <c r="GY3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="GA3" s="1" t="s">
+      <c r="GZ3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="GB3" s="1" t="s">
+      <c r="HA3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="GC3" s="1" t="s">
+      <c r="HB3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="GD3" s="1" t="s">
+      <c r="HC3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="GE3" s="1" t="s">
+      <c r="HD3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="GF3" s="1" t="s">
+      <c r="HE3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="GG3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="GH3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="GI3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="GJ3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="GK3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="GL3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="GM3" s="1" t="s">
+      <c r="HF3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="HG3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="HH3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="HI3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="HJ3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="HK3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="HL3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="GN3" s="1" t="s">
+      <c r="HM3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="GO3" s="1" t="s">
+      <c r="HN3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="GP3" s="1" t="s">
+      <c r="HO3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="GQ3" s="1" t="s">
+      <c r="HP3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="GR3" s="1" t="s">
+      <c r="HQ3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="GS3" s="1" t="s">
+      <c r="HR3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="GT3" s="1" t="s">
+      <c r="HS3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GU3" s="1" t="s">
+      <c r="HT3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GV3" s="1" t="s">
+      <c r="HU3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GW3" s="1" t="s">
+      <c r="HV3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="GX3" s="1" t="s">
+      <c r="HW3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="GY3" s="1" t="s">
+      <c r="HX3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="GZ3" s="1" t="s">
+      <c r="HY3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="HA3" s="1" t="s">
+      <c r="HZ3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="HB3" s="1" t="s">
+      <c r="IA3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="HC3" s="1" t="s">
+      <c r="IB3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="HD3" s="1" t="s">
+      <c r="IC3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="HE3" s="1" t="s">
+      <c r="ID3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="HF3" s="1" t="s">
+      <c r="IE3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="HG3" s="1" t="s">
+      <c r="IF3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="HH3" s="1" t="s">
+      <c r="IG3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="HI3" s="1" t="s">
+      <c r="IH3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="HJ3" s="1" t="s">
+      <c r="II3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="HK3" s="1" t="s">
+      <c r="IJ3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="HL3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="HM3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="HN3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="HO3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="HP3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="HQ3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="HR3" s="1" t="s">
+      <c r="IK3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="IL3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="IM3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="IN3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="IO3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="IP3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="HS3" s="1" t="s">
+      <c r="IQ3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="HT3" s="1" t="s">
+      <c r="IR3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="HU3" s="1" t="s">
+      <c r="IS3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="HV3" s="1" t="s">
+      <c r="IT3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="HW3" s="1" t="s">
+      <c r="IU3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="HX3" s="1" t="s">
+      <c r="IV3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="HY3" s="1" t="s">
+      <c r="IW3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HZ3" s="1" t="s">
+      <c r="IX3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="IA3" s="1" t="s">
+      <c r="IY3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="IB3" s="1" t="s">
+      <c r="IZ3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="IC3" s="1" t="s">
+      <c r="JA3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="ID3" s="1" t="s">
+      <c r="JB3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="IE3" s="1" t="s">
+      <c r="JC3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="IF3" s="1" t="s">
+      <c r="JD3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="IG3" s="1" t="s">
+      <c r="JE3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="IH3" s="1" t="s">
+      <c r="JF3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="II3" s="1" t="s">
+      <c r="JG3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="IJ3" s="1" t="s">
+      <c r="JH3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="IK3" s="1" t="s">
+      <c r="JI3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="IL3" s="1" t="s">
+      <c r="JJ3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="IM3" s="1" t="s">
+      <c r="JK3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="IN3" s="1" t="s">
+      <c r="JL3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="IO3" s="1" t="s">
+      <c r="JM3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="IP3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="IQ3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="IR3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="IS3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="IT3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="IU3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="IV3" s="1" t="s">
+      <c r="JN3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="JO3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="JP3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="JQ3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="JR3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="JS3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="JT3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="JU3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="IW3" s="1" t="s">
+      <c r="JV3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="IX3" s="1" t="s">
+      <c r="JW3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="IY3" s="1" t="s">
+      <c r="JX3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="IZ3" s="1" t="s">
+      <c r="JY3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="JA3" s="1" t="s">
+      <c r="JZ3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="JB3" s="1" t="s">
+      <c r="KA3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="JC3" s="1" t="s">
+      <c r="KB3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="JD3" s="1" t="s">
+      <c r="KC3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="JE3" s="1" t="s">
+      <c r="KD3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="JF3" s="1" t="s">
+      <c r="KE3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="JG3" s="1" t="s">
+      <c r="KF3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="JH3" s="1" t="s">
+      <c r="KG3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="JI3" s="1" t="s">
+      <c r="KH3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="JJ3" s="1" t="s">
+      <c r="KI3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="JK3" s="1" t="s">
+      <c r="KJ3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="JL3" s="1" t="s">
+      <c r="KK3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="JM3" s="1" t="s">
+      <c r="KL3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="JN3" s="1" t="s">
+      <c r="KM3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="JO3" s="1" t="s">
+      <c r="KN3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="JP3" s="1" t="s">
+      <c r="KO3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="JQ3" s="1" t="s">
+      <c r="KP3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="JR3" s="1" t="s">
+      <c r="KQ3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="JS3" s="1" t="s">
+      <c r="KR3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="JT3" s="1" t="s">
+      <c r="KS3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="JU3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="JV3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="JW3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="JX3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="JY3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="JZ3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="KA3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="KB3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="KC3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="KD3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="KE3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="KF3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="KG3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="KH3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="KI3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="KJ3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="KK3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="KL3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="KM3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="KN3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="KO3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="KP3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="KQ3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="KR3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="KS3" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="KT3" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="KU3" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="KV3" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="KW3" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="KX3" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>33.448143</v>
@@ -3555,10 +3606,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>34.746613</v>
@@ -3881,10 +3932,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>38.576668</v>
@@ -4207,10 +4258,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>39.739227</v>
@@ -4533,10 +4584,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>41.764046</v>
@@ -4859,10 +4910,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>39.157307</v>
@@ -5185,10 +5236,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>30.438118</v>
@@ -5511,10 +5562,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>33.749027</v>
@@ -5837,10 +5888,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>43.617775</v>
@@ -6163,10 +6214,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>39.798363</v>
@@ -6489,10 +6540,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>39.768623</v>
@@ -6815,10 +6866,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>41.591087</v>
@@ -7141,10 +7192,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>39.048191</v>
@@ -7467,10 +7518,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>38.186722</v>
@@ -7793,10 +7844,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>30.457069</v>
@@ -8119,10 +8170,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>44.307167</v>
@@ -8445,10 +8496,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>38.978764</v>
@@ -8771,10 +8822,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>42.358162</v>
@@ -9097,10 +9148,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>42.733635</v>
@@ -9423,10 +9474,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>44.955097</v>
@@ -9749,10 +9800,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>32.303848</v>
@@ -10075,10 +10126,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>38.579201</v>
@@ -10401,10 +10452,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>46.585709</v>
@@ -10727,10 +10778,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>40.808075</v>
@@ -11053,10 +11104,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>39.163914</v>
@@ -11379,10 +11430,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>43.206898</v>
@@ -11705,10 +11756,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>40.220596</v>
@@ -12031,10 +12082,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>35.68224</v>
@@ -12357,10 +12408,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>35.78043</v>
@@ -12683,10 +12734,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>46.82085</v>
@@ -13009,10 +13060,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>42.652843</v>
@@ -13335,10 +13386,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>39.961346</v>
@@ -13661,10 +13712,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>35.492207</v>
@@ -13987,10 +14038,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>44.938461</v>
@@ -14313,10 +14364,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>40.264378</v>
@@ -14639,10 +14690,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>41.830914</v>
@@ -14965,10 +15016,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>34.000343</v>
@@ -15291,10 +15342,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>44.367031</v>
@@ -15617,10 +15668,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>36.16581</v>
@@ -15943,10 +15994,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>30.27467</v>
@@ -16269,10 +16320,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>40.777477</v>
@@ -16595,10 +16646,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44.262436</v>
@@ -16921,10 +16972,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>37.538857</v>
@@ -17247,10 +17298,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>47.035805</v>
@@ -17573,10 +17624,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>38.336246</v>
@@ -17899,10 +17950,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>43.074684</v>
@@ -18225,10 +18276,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>41.140259</v>
@@ -18633,15 +18684,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>30.27467</v>
@@ -18790,10 +18841,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>-97.740349</v>
@@ -26274,42 +26325,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -26317,7 +26368,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -26325,7 +26376,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -26333,18 +26384,18 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -26352,7 +26403,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -26360,7 +26411,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -26368,7 +26419,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -26376,7 +26427,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -26384,7 +26435,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -26392,18 +26443,18 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -26411,7 +26462,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -26419,7 +26470,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -26427,7 +26478,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -26435,7 +26486,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -26443,7 +26494,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -26451,18 +26502,18 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -26470,7 +26521,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -26478,7 +26529,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -26486,7 +26537,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -26494,7 +26545,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -26502,7 +26553,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -26510,18 +26561,18 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -26529,7 +26580,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -26537,7 +26588,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -26545,7 +26596,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -26553,7 +26604,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -26561,7 +26612,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -26569,18 +26620,18 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -26588,7 +26639,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -26596,7 +26647,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -26604,7 +26655,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -26612,7 +26663,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -26620,7 +26671,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -26628,18 +26679,18 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -26647,7 +26698,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -26655,7 +26706,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -26663,7 +26714,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -26671,7 +26722,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -26679,7 +26730,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -26687,18 +26738,18 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -26706,7 +26757,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -26714,7 +26765,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -26722,7 +26773,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -26730,7 +26781,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -26738,7 +26789,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -26746,18 +26797,18 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -26765,7 +26816,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -26773,7 +26824,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -26781,7 +26832,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -26789,7 +26840,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -26797,7 +26848,7 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -26805,18 +26856,18 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -26824,7 +26875,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -26832,7 +26883,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -26840,7 +26891,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -26848,7 +26899,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -26856,7 +26907,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -26864,18 +26915,18 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -26883,7 +26934,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -26891,7 +26942,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -26899,7 +26950,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -26907,7 +26958,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -26915,7 +26966,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -26923,18 +26974,18 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -26942,7 +26993,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -26950,7 +27001,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -26958,7 +27009,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -26966,7 +27017,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -26974,7 +27025,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -26982,18 +27033,18 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -27001,7 +27052,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -27009,7 +27060,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -27017,7 +27068,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -27025,7 +27076,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -27033,7 +27084,7 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -27041,18 +27092,18 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -27060,7 +27111,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -27068,7 +27119,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -27076,7 +27127,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -27084,7 +27135,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -27092,7 +27143,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -27100,18 +27151,18 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -27119,7 +27170,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -27127,7 +27178,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -27135,7 +27186,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -27143,7 +27194,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -27151,7 +27202,7 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -27159,18 +27210,18 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -27178,7 +27229,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -27186,7 +27237,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -27194,7 +27245,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -27202,7 +27253,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -27210,7 +27261,7 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -27218,18 +27269,18 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -27237,7 +27288,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -27245,7 +27296,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -27253,7 +27304,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -27261,7 +27312,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -27269,7 +27320,7 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -27277,18 +27328,18 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -27296,7 +27347,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -27304,7 +27355,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -27312,7 +27363,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -27320,7 +27371,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -27328,7 +27379,7 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -27336,18 +27387,18 @@
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -27355,7 +27406,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -27363,7 +27414,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -27371,7 +27422,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -27379,7 +27430,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -27387,7 +27438,7 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -27395,18 +27446,18 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -27414,7 +27465,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -27422,7 +27473,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -27430,7 +27481,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -27438,7 +27489,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -27446,7 +27497,7 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -27454,18 +27505,18 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -27473,7 +27524,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -27481,7 +27532,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -27489,7 +27540,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -27497,7 +27548,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -27505,7 +27556,7 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -27513,18 +27564,18 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -27532,7 +27583,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -27540,7 +27591,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -27548,7 +27599,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -27556,7 +27607,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -27564,7 +27615,7 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -27572,18 +27623,18 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -27591,7 +27642,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -27599,7 +27650,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -27607,7 +27658,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -27615,7 +27666,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -27623,7 +27674,7 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -27631,18 +27682,18 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -27650,7 +27701,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -27658,7 +27709,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -27666,7 +27717,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -27674,7 +27725,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -27682,7 +27733,7 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -27690,18 +27741,18 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -27709,7 +27760,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -27717,7 +27768,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -27725,7 +27776,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -27733,7 +27784,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -27741,7 +27792,7 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -27749,18 +27800,18 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -27768,7 +27819,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -27776,7 +27827,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -27784,7 +27835,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -27792,7 +27843,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -27800,7 +27851,7 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -27808,18 +27859,18 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -27827,7 +27878,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -27835,7 +27886,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -27843,7 +27894,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -27851,7 +27902,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -27859,7 +27910,7 @@
     </row>
     <row r="186">
       <c r="A186" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -27867,18 +27918,18 @@
     </row>
     <row r="187">
       <c r="A187" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -27886,7 +27937,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -27894,7 +27945,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -27902,7 +27953,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -27910,7 +27961,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -27918,7 +27969,7 @@
     </row>
     <row r="193">
       <c r="A193" s="3" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -27926,18 +27977,18 @@
     </row>
     <row r="194">
       <c r="A194" s="3" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -27945,7 +27996,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -27953,7 +28004,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -27961,7 +28012,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -27969,7 +28020,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -27977,7 +28028,7 @@
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -27985,18 +28036,18 @@
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -28004,7 +28055,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -28012,7 +28063,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -28020,7 +28071,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -28028,7 +28079,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -28036,7 +28087,7 @@
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -28044,18 +28095,18 @@
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -28063,7 +28114,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -28071,7 +28122,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -28079,7 +28130,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -28087,7 +28138,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -28095,7 +28146,7 @@
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -28103,18 +28154,18 @@
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -28122,7 +28173,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -28130,7 +28181,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -28138,7 +28189,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -28146,7 +28197,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -28154,7 +28205,7 @@
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -28162,18 +28213,18 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -28181,7 +28232,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -28189,7 +28240,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -28197,7 +28248,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -28205,7 +28256,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -28213,7 +28264,7 @@
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -28221,18 +28272,18 @@
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -28240,7 +28291,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -28248,7 +28299,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -28256,7 +28307,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -28264,7 +28315,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -28272,7 +28323,7 @@
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -28280,18 +28331,18 @@
     </row>
     <row r="236">
       <c r="A236" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -28299,7 +28350,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -28307,7 +28358,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -28315,7 +28366,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -28323,7 +28374,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -28331,7 +28382,7 @@
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -28339,18 +28390,18 @@
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -28358,7 +28409,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -28366,7 +28417,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -28374,7 +28425,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -28382,7 +28433,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -28390,7 +28441,7 @@
     </row>
     <row r="249">
       <c r="A249" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -28398,18 +28449,18 @@
     </row>
     <row r="250">
       <c r="A250" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -28417,7 +28468,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -28425,7 +28476,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -28433,7 +28484,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -28441,7 +28492,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -28449,7 +28500,7 @@
     </row>
     <row r="256">
       <c r="A256" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -28457,18 +28508,18 @@
     </row>
     <row r="257">
       <c r="A257" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -28476,7 +28527,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -28484,7 +28535,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -28492,7 +28543,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -28500,7 +28551,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -28508,7 +28559,7 @@
     </row>
     <row r="263">
       <c r="A263" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -28516,18 +28567,18 @@
     </row>
     <row r="264">
       <c r="A264" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -28535,7 +28586,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -28543,7 +28594,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -28551,7 +28602,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -28559,7 +28610,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -28567,7 +28618,7 @@
     </row>
     <row r="270">
       <c r="A270" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -28575,18 +28626,18 @@
     </row>
     <row r="271">
       <c r="A271" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -28594,7 +28645,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -28602,7 +28653,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -28610,7 +28661,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -28618,7 +28669,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -28626,7 +28677,7 @@
     </row>
     <row r="277">
       <c r="A277" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -28634,18 +28685,18 @@
     </row>
     <row r="278">
       <c r="A278" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -28653,7 +28704,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -28661,7 +28712,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -28669,7 +28720,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -28677,7 +28728,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -28685,7 +28736,7 @@
     </row>
     <row r="284">
       <c r="A284" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -28693,18 +28744,18 @@
     </row>
     <row r="285">
       <c r="A285" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -28712,7 +28763,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -28720,7 +28771,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -28728,7 +28779,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -28736,7 +28787,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -28744,7 +28795,7 @@
     </row>
     <row r="291">
       <c r="A291" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -28752,18 +28803,18 @@
     </row>
     <row r="292">
       <c r="A292" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -28771,7 +28822,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -28779,7 +28830,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -28787,7 +28838,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -28795,7 +28846,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -28803,7 +28854,7 @@
     </row>
     <row r="298">
       <c r="A298" s="3" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -28811,18 +28862,18 @@
     </row>
     <row r="299">
       <c r="A299" s="3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -28830,7 +28881,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -28838,7 +28889,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -28846,7 +28897,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -28854,7 +28905,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -28864,16 +28915,16 @@
     <row r="306"/>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E307" s="2" t="n">
         <v>42.652843</v>
@@ -28896,16 +28947,16 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E308" s="2" t="n">
         <v>38.978764</v>
@@ -28928,16 +28979,16 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E309" s="2" t="n">
         <v>33.749027</v>
@@ -28960,16 +29011,16 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E310" s="2" t="n">
         <v>44.307167</v>
@@ -28992,16 +29043,16 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E311" s="2" t="n">
         <v>30.27467</v>
@@ -29024,16 +29075,16 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E312" s="2" t="n">
         <v>30.457069</v>
@@ -29056,16 +29107,16 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E313" s="2" t="n">
         <v>46.82085</v>
@@ -29088,16 +29139,16 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E314" s="2" t="n">
         <v>43.617775</v>
@@ -29120,16 +29171,16 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E315" s="2" t="n">
         <v>42.358162</v>
@@ -29152,16 +29203,16 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E316" s="2" t="n">
         <v>39.163914</v>
@@ -29184,16 +29235,16 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E317" s="2" t="n">
         <v>38.336246</v>
@@ -29216,16 +29267,16 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E318" s="2" t="n">
         <v>41.140259</v>
@@ -29248,16 +29299,16 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E319" s="2" t="n">
         <v>34.000343</v>
@@ -29280,16 +29331,16 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E320" s="2" t="n">
         <v>39.961346</v>
@@ -29312,16 +29363,16 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E321" s="2" t="n">
         <v>43.206898</v>
@@ -29344,16 +29395,16 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E322" s="2" t="n">
         <v>39.739227</v>
@@ -29376,16 +29427,16 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E323" s="2" t="n">
         <v>41.591087</v>
@@ -29408,16 +29459,16 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E324" s="2" t="n">
         <v>39.157307</v>
@@ -29440,16 +29491,16 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E325" s="2" t="n">
         <v>38.186722</v>
@@ -29472,16 +29523,16 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E326" s="2" t="n">
         <v>40.264378</v>
@@ -29504,16 +29555,16 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E327" s="2" t="n">
         <v>41.764046</v>
@@ -29536,16 +29587,16 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E328" s="2" t="n">
         <v>46.585709</v>
@@ -29568,16 +29619,16 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E329" s="2" t="n">
         <v>39.768623</v>
@@ -29600,16 +29651,16 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E330" s="2" t="n">
         <v>32.303848</v>
@@ -29632,16 +29683,16 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E331" s="2" t="n">
         <v>38.579201</v>
@@ -29664,16 +29715,16 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E332" s="2" t="n">
         <v>42.733635</v>
@@ -29696,16 +29747,16 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E333" s="2" t="n">
         <v>40.808075</v>
@@ -29728,16 +29779,16 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E334" s="2" t="n">
         <v>34.746613</v>
@@ -29760,16 +29811,16 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E335" s="2" t="n">
         <v>43.074684</v>
@@ -29792,16 +29843,16 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E336" s="2" t="n">
         <v>44.262436</v>
@@ -29824,16 +29875,16 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E337" s="2" t="n">
         <v>36.16581</v>
@@ -29856,16 +29907,16 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E338" s="2" t="n">
         <v>35.492207</v>
@@ -29888,16 +29939,16 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E339" s="2" t="n">
         <v>47.035805</v>
@@ -29920,16 +29971,16 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E340" s="2" t="n">
         <v>33.448143</v>
@@ -29952,16 +30003,16 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E341" s="2" t="n">
         <v>44.367031</v>
@@ -29984,16 +30035,16 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E342" s="2" t="n">
         <v>41.830914</v>
@@ -30016,16 +30067,16 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E343" s="2" t="n">
         <v>35.78043</v>
@@ -30048,16 +30099,16 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E344" s="2" t="n">
         <v>37.538857</v>
@@ -30080,16 +30131,16 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E345" s="2" t="n">
         <v>38.576668</v>
@@ -30112,16 +30163,16 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E346" s="2" t="n">
         <v>44.938461</v>
@@ -30144,16 +30195,16 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E347" s="2" t="n">
         <v>40.777477</v>
@@ -30176,16 +30227,16 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E348" s="2" t="n">
         <v>35.68224</v>
@@ -30208,16 +30259,16 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E349" s="2" t="n">
         <v>39.798363</v>
@@ -30240,16 +30291,16 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E350" s="2" t="n">
         <v>44.955097</v>
@@ -30272,16 +30323,16 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E351" s="2" t="n">
         <v>30.438118</v>
@@ -30304,16 +30355,16 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E352" s="2" t="n">
         <v>39.048191</v>
@@ -30336,16 +30387,16 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E353" s="2" t="n">
         <v>40.220596</v>
@@ -30368,7 +30419,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
